--- a/Projects/CCRU/Data/KPIs_2020/POS_VALIDATION/INPUT/Benchmark 2020.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/POS_VALIDATION/INPUT/Benchmark 2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Hyper" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="90">
   <si>
     <t xml:space="preserve">KPI Code</t>
   </si>
@@ -183,6 +183,10 @@
 Tea Display</t>
   </si>
   <si>
+    <t xml:space="preserve">Tea-Rich Display
+Tea Display(PoS 2020 - MT ConvBig - CAP, PoS 2020 - MT ConvBig - NKA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">STANDARD 18</t>
   </si>
   <si>
@@ -193,6 +197,9 @@
 Cooler: Merch Priority STD,
 Cooler: Prime Position,
 Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priority STD(PoS 2020 - MT ConvBig - CAP, PoS 2020 - MT ConvBig - NKA)</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st,
@@ -202,11 +209,17 @@
 Tea Display</t>
   </si>
   <si>
+    <t xml:space="preserve">Cooler: Merch Priority STD(PoS 2020 - MT ConvBig - REG)</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD Display 1st,
 SSD Display 2d,
 Juice Display 1st</t>
   </si>
   <si>
+    <t xml:space="preserve">Cooler: Merch Priority STD(PoS 2020 - MT ConvSmall - CAP, PoS 2020 - MT ConvSmall - REG, PoS 2020 - MT ConvSmall - NKA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juice (JNSD) Availability,
 Energy Availability,
 Water Availability</t>
@@ -239,6 +252,9 @@
 Combo: Other</t>
   </si>
   <si>
+    <t xml:space="preserve">Combo: Other(PoS 2020 - IC BarNightClub)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CCH coolers quality (Prime Pos/Max15/Merch STD/Occupancy/Lights&amp;chilled)</t>
   </si>
   <si>
@@ -247,6 +263,9 @@
 Cooler: Max 26</t>
   </si>
   <si>
+    <t xml:space="preserve">Cooler is visible(PoS 2020 - IC BarNightClub, PoS 2020 - IC CoffeeShop)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Combo,
 Impulse Activation</t>
   </si>
@@ -254,6 +273,10 @@
     <t xml:space="preserve">Cooler: Max 26
 Cooler: Prime Position,
 Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 26
+Cooler: Prime Position(PoS 2020 - IC FastFood)</t>
   </si>
   <si>
     <t xml:space="preserve">Combo, 
@@ -262,12 +285,30 @@
 Impulse Activation</t>
   </si>
   <si>
+    <t xml:space="preserve">Combo, 
+Combo: Other, 
+Combo2(PoS 2020 - IC Cinema)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 26
+Cooler: Prime Position(PoS 2020 - IC Cinema)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability(PoS 2020 - IC QSR - GastroMarket)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Combo1, 
 Combo2, 
 Combo3, 
 Assortment Reminder</t>
   </si>
   <si>
+    <t xml:space="preserve">Combo1, 
+Combo2, 
+Combo3, 
+Assortment Reminder(PoS 2020 - IC QSR - FoodCourt, PoS 2020 - IC QSR - Classic, PoS 2020 - IC QSR - GastroMarket)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Impulse Activation</t>
   </si>
   <si>
@@ -284,10 +325,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo, 
-Combo Other</t>
   </si>
   <si>
     <t xml:space="preserve">Impulse Activation,
@@ -319,21 +356,40 @@
 Cooler: w/o FC packs</t>
   </si>
   <si>
+    <t xml:space="preserve">Energy Availability(PoS 2020 - FT S - Bread, PoS 2020 - FT S - Dairy, PoS 2020 - FT S - Meat, PoS 2020 - FT S - Sweets, PoS 2020 - FT S - Veggies),
+Juice (JNSD) Availability(PoS 2020 - FT S - Beer, PoS 2020 - FT S - Tobacco),
+Water Availability(PoS 2020 - FT S - Beer),
+Tea Availability(PoS 2020 - FT S - Beer, PoS 2020 - FT S - Bread, PoS 2020 - FT S - Dairy, PoS 2020 - FT S - Tobacco)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juice Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display(PoS 2020 - FT S - Beer, PoS 2020 - FT S - Bread, PoS 2020 - FT S - Dairy, PoS 2020 - FT S - Meat, PoS 2020 - FT S - Sweets, PoS 2020 - FT S - Tobacco, PoS 2020 - FT S - Veggies)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors(PoS 2020 - FT S - Dairy, PoS 2020 - FT S - Sweets, PoS 2020 - FT S - Veggies)</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Prime Position,
 Cooler: Max 26,
 Cooler: Merch Priorty STD,
 Cooler: w/o FC products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position(PoS 2020 - FT S - Beer, PoS 2020 - FT S - Bread, PoS 2020 - FT S - Dairy, PoS 2020 - FT S - Meat, PoS 2020 - FT S - Sweets, PoS 2020 - FT S - Tobacco, PoS 2020 - FT S - Veggies),
+Cooler: Max 26(PoS 2020 - FT S - Beer, PoS 2020 - FT S - Bread, PoS 2020 - FT S - Dairy, PoS 2020 - FT S - Meat, PoS 2020 - FT S - Sweets, PoS 2020 - FT S - Tobacco, PoS 2020 - FT S - Veggies),
+Cooler: Merch Priorty STD(PoS 2020 - FT S - Dairy, PoS 2020 - FT S - Sweets, PoS 2020 - FT S - Veggies),
+Cooler: w/o FC products(PoS 2020 - FT S - Beer, PoS 2020 - FT S - Bread, PoS 2020 - FT S - Dairy, PoS 2020 - FT S - Meat, PoS 2020 - FT S - Sweets, PoS 2020 - FT S - Tobacco, PoS 2020 - FT S - Veggies)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -422,8 +478,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -431,15 +491,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -523,190 +583,190 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5627530364373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="169.105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.8259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.0121457489878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.02834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.08502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>2.454546</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="n">
+        <v>1.022223</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="3" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="3" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="3" t="n">
+        <v>0.744286</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C7" s="3" t="n">
+        <v>0.745264</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="C8" s="3" t="n">
+        <v>0.78353</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="3" t="n">
+        <v>1.470589</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="C10" s="3" t="n">
+        <v>0.769231</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -729,141 +789,145 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6477732793522"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="163.506072874494"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.8259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.666667</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="n">
+        <v>0.869566</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>62</v>
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.526316</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="0" t="s">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>63</v>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.652174</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -885,106 +949,106 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6477732793522"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.8259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.0121457489878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.02834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="78.9554655870445"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.08502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="0" t="s">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>64</v>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1003,229 +1067,208 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6477732793522"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="102.263157894737"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.587044534413"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.6875</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>65</v>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>66</v>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="C8" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>68</v>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.555556</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>1.18889</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>63</v>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1247,123 +1290,118 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6477732793522"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.59091</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>70</v>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1.153847</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1385,123 +1423,118 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6477732793522"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.59091</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>70</v>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.111111</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1.153847</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1523,123 +1556,123 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.6194331983806"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.587044534413"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0566801619433"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.08502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.176471</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>0.733334</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.176471</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1.176471</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>72</v>
+      <c r="C4" s="3" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.176471</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="3" t="n">
+        <v>0.833334</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.176471</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1661,126 +1694,132 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.22672064777328"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.6194331983806"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>74</v>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1801,190 +1840,189 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5627530364373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.8259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.0121457489878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0566801619433"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="5" t="n">
+        <v>2.454546</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="5" t="n">
+        <v>1.022223</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="5" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="5" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="5" t="n">
+        <v>0.744286</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C7" s="5" t="n">
+        <v>0.745264</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="C8" s="5" t="n">
+        <v>0.78353</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="5" t="n">
+        <v>1.470589</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1.1976048</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="C10" s="5" t="n">
+        <v>0.769231</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2007,208 +2045,220 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6518218623482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.1902834008097"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.9676113360324"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.0121457489878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.833334</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="n">
+        <v>0.818182</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="3" t="n">
+        <v>0.877334</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="3" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="3" t="n">
+        <v>0.8848</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C7" s="3" t="n">
+        <v>0.889231</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="C8" s="3" t="n">
+        <v>1.132308</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="F8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="C10" s="3" t="n">
+        <v>0.357143</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2230,208 +2280,217 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6518218623482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.1902834008097"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.0121457489878"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.833334</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="n">
+        <v>0.818182</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="3" t="n">
+        <v>0.877334</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="3" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="3" t="n">
+        <v>0.8848</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C7" s="3" t="n">
+        <v>0.889231</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="C8" s="3" t="n">
+        <v>1.132308</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="F8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.357143</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2453,210 +2512,218 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6518218623482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.1902834008097"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="176.53036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.0121457489878"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.833334</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="n">
+        <v>0.818182</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="3" t="n">
+        <v>0.877334</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="3" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="3" t="n">
+        <v>0.8848</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C7" s="3" t="n">
+        <v>0.889231</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="C8" s="3" t="n">
+        <v>1.132308</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="F8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C9" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="C10" s="3" t="n">
+        <v>0.357143</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>1.123596</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="C11" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2677,106 +2744,104 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.9028340080972"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.8259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.200048</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.200048</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1.200048</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1.200048</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>53</v>
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1.333334</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2795,129 +2860,135 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="112.089068825911"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.0202429149798"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.8259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.200048</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.296297</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.200048</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C3" s="3" t="n">
+        <v>1.086957</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1.200048</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="40" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1.200048</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="40" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.200048</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C5" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2937,122 +3008,126 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6477732793522"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.8259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.944445</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.333334</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>59</v>
+      <c r="C5" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3075,123 +3150,128 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6477732793522"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.3603238866397"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.8259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1.346154</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="n">
+        <v>0.925926</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>59</v>
+      <c r="C5" s="3" t="n">
+        <v>1.363637</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.38889</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1.363637</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
